--- a/results/svm_results.xlsx
+++ b/results/svm_results.xlsx
@@ -11,13 +11,14 @@
     <sheet name="result" sheetId="2" r:id="rId2"/>
     <sheet name="roc" sheetId="3" r:id="rId3"/>
     <sheet name="auc" sheetId="4" r:id="rId4"/>
+    <sheet name="CVresult" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="71">
   <si>
     <t>Parameter</t>
   </si>
@@ -47,6 +48,189 @@
   </si>
   <si>
     <t>auc</t>
+  </si>
+  <si>
+    <t>mean_fit_time</t>
+  </si>
+  <si>
+    <t>mean_score_time</t>
+  </si>
+  <si>
+    <t>mean_test_score</t>
+  </si>
+  <si>
+    <t>mean_train_score</t>
+  </si>
+  <si>
+    <t>param_C</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>rank_test_score</t>
+  </si>
+  <si>
+    <t>split0_test_score</t>
+  </si>
+  <si>
+    <t>split0_train_score</t>
+  </si>
+  <si>
+    <t>split1_test_score</t>
+  </si>
+  <si>
+    <t>split1_train_score</t>
+  </si>
+  <si>
+    <t>split2_test_score</t>
+  </si>
+  <si>
+    <t>split2_train_score</t>
+  </si>
+  <si>
+    <t>split3_test_score</t>
+  </si>
+  <si>
+    <t>split3_train_score</t>
+  </si>
+  <si>
+    <t>split4_test_score</t>
+  </si>
+  <si>
+    <t>split4_train_score</t>
+  </si>
+  <si>
+    <t>std_fit_time</t>
+  </si>
+  <si>
+    <t>std_score_time</t>
+  </si>
+  <si>
+    <t>std_test_score</t>
+  </si>
+  <si>
+    <t>std_train_score</t>
+  </si>
+  <si>
+    <t>{'C': 10}</t>
+  </si>
+  <si>
+    <t>{'C': 11}</t>
+  </si>
+  <si>
+    <t>{'C': 12}</t>
+  </si>
+  <si>
+    <t>{'C': 13}</t>
+  </si>
+  <si>
+    <t>{'C': 14}</t>
+  </si>
+  <si>
+    <t>{'C': 15}</t>
+  </si>
+  <si>
+    <t>{'C': 16}</t>
+  </si>
+  <si>
+    <t>{'C': 17}</t>
+  </si>
+  <si>
+    <t>{'C': 18}</t>
+  </si>
+  <si>
+    <t>{'C': 19}</t>
+  </si>
+  <si>
+    <t>{'C': 20}</t>
+  </si>
+  <si>
+    <t>{'C': 21}</t>
+  </si>
+  <si>
+    <t>{'C': 22}</t>
+  </si>
+  <si>
+    <t>{'C': 23}</t>
+  </si>
+  <si>
+    <t>{'C': 24}</t>
+  </si>
+  <si>
+    <t>{'C': 25}</t>
+  </si>
+  <si>
+    <t>{'C': 26}</t>
+  </si>
+  <si>
+    <t>{'C': 27}</t>
+  </si>
+  <si>
+    <t>{'C': 28}</t>
+  </si>
+  <si>
+    <t>{'C': 29}</t>
+  </si>
+  <si>
+    <t>{'C': 30}</t>
+  </si>
+  <si>
+    <t>{'C': 31}</t>
+  </si>
+  <si>
+    <t>{'C': 32}</t>
+  </si>
+  <si>
+    <t>{'C': 33}</t>
+  </si>
+  <si>
+    <t>{'C': 34}</t>
+  </si>
+  <si>
+    <t>{'C': 35}</t>
+  </si>
+  <si>
+    <t>{'C': 36}</t>
+  </si>
+  <si>
+    <t>{'C': 37}</t>
+  </si>
+  <si>
+    <t>{'C': 38}</t>
+  </si>
+  <si>
+    <t>{'C': 39}</t>
+  </si>
+  <si>
+    <t>{'C': 40}</t>
+  </si>
+  <si>
+    <t>{'C': 41}</t>
+  </si>
+  <si>
+    <t>{'C': 42}</t>
+  </si>
+  <si>
+    <t>{'C': 43}</t>
+  </si>
+  <si>
+    <t>{'C': 44}</t>
+  </si>
+  <si>
+    <t>{'C': 45}</t>
+  </si>
+  <si>
+    <t>{'C': 46}</t>
+  </si>
+  <si>
+    <t>{'C': 47}</t>
+  </si>
+  <si>
+    <t>{'C': 48}</t>
+  </si>
+  <si>
+    <t>{'C': 49}</t>
   </si>
 </sst>
 </file>
@@ -423,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.899999999999993</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +657,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -497,7 +681,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -537,7 +721,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -665,7 +849,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -673,7 +857,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -745,7 +929,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -801,7 +985,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -809,7 +993,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1009,7 +1193,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1097,7 +1281,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -1137,7 +1321,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -1257,7 +1441,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -1265,7 +1449,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -1305,7 +1489,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -1329,7 +1513,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -1345,7 +1529,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -1353,7 +1537,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -1401,7 +1585,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -1441,7 +1625,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -1521,7 +1705,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -1553,7 +1737,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -1585,7 +1769,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -1625,7 +1809,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -1713,7 +1897,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -1865,7 +2049,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -1897,7 +2081,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -1993,7 +2177,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -2089,7 +2273,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -2137,7 +2321,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -2345,7 +2529,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -2369,7 +2553,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -2433,7 +2617,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -2441,7 +2625,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -2489,7 +2673,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -2513,7 +2697,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -2569,7 +2753,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -2577,7 +2761,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -2633,7 +2817,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -2657,7 +2841,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -2673,7 +2857,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -2681,7 +2865,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -2705,7 +2889,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -2785,7 +2969,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -2929,7 +3113,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -2937,7 +3121,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -2953,7 +3137,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -2977,7 +3161,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
@@ -3113,7 +3297,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -3145,7 +3329,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -3249,7 +3433,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -3257,7 +3441,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -3321,7 +3505,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -3345,7 +3529,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -3361,7 +3545,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -3401,7 +3585,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -3433,7 +3617,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -3497,7 +3681,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -3529,7 +3713,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -3561,7 +3745,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -3569,7 +3753,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -3593,7 +3777,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -3649,7 +3833,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -3673,7 +3857,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -3801,7 +3985,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B421" t="s">
         <v>6</v>
@@ -3833,7 +4017,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -3865,7 +4049,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -3897,7 +4081,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
@@ -3905,7 +4089,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
@@ -4017,7 +4201,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -4025,7 +4209,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -4065,7 +4249,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -4105,7 +4289,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
@@ -4145,7 +4329,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
@@ -4225,7 +4409,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B474" t="s">
         <v>5</v>
@@ -4249,7 +4433,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B477" t="s">
         <v>5</v>
@@ -4409,7 +4593,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B497" t="s">
         <v>5</v>
@@ -4473,7 +4657,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B505" t="s">
         <v>6</v>
@@ -4489,7 +4673,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B507" t="s">
         <v>5</v>
@@ -4617,7 +4801,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B523" t="s">
         <v>6</v>
@@ -4657,7 +4841,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B528" t="s">
         <v>5</v>
@@ -4665,7 +4849,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B529" t="s">
         <v>5</v>
@@ -4673,7 +4857,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B530" t="s">
         <v>5</v>
@@ -4705,7 +4889,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B534" t="s">
         <v>6</v>
@@ -4929,7 +5113,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B562" t="s">
         <v>5</v>
@@ -5129,7 +5313,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B587" t="s">
         <v>6</v>
@@ -5281,7 +5465,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B606" t="s">
         <v>5</v>
@@ -5305,7 +5489,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B609" t="s">
         <v>6</v>
@@ -5313,7 +5497,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B610" t="s">
         <v>6</v>
@@ -5409,7 +5593,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B622" t="s">
         <v>6</v>
@@ -5441,7 +5625,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B626" t="s">
         <v>6</v>
@@ -5465,7 +5649,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B629" t="s">
         <v>5</v>
@@ -5561,7 +5745,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B641" t="s">
         <v>5</v>
@@ -5593,7 +5777,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B645" t="s">
         <v>6</v>
@@ -5713,7 +5897,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B660" t="s">
         <v>5</v>
@@ -5777,7 +5961,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B668" t="s">
         <v>5</v>
@@ -5865,7 +6049,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B679" t="s">
         <v>5</v>
@@ -5881,7 +6065,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B681" t="s">
         <v>6</v>
@@ -5921,7 +6105,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B686" t="s">
         <v>6</v>
@@ -5969,7 +6153,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B692" t="s">
         <v>5</v>
@@ -6001,7 +6185,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B696" t="s">
         <v>5</v>
@@ -6049,7 +6233,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B702" t="s">
         <v>6</v>
@@ -6121,7 +6305,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B711" t="s">
         <v>5</v>
@@ -6129,7 +6313,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B712" t="s">
         <v>5</v>
@@ -6177,7 +6361,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B718" t="s">
         <v>6</v>
@@ -6305,7 +6489,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B734" t="s">
         <v>5</v>
@@ -6361,7 +6545,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B741" t="s">
         <v>5</v>
@@ -6489,7 +6673,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B757" t="s">
         <v>5</v>
@@ -6609,7 +6793,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B772" t="s">
         <v>6</v>
@@ -6649,7 +6833,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B777" t="s">
         <v>5</v>
@@ -6665,7 +6849,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B779" t="s">
         <v>5</v>
@@ -6817,7 +7001,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B798" t="s">
         <v>6</v>
@@ -6825,7 +7009,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B799" t="s">
         <v>5</v>
@@ -6833,7 +7017,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B800" t="s">
         <v>5</v>
@@ -6929,7 +7113,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B812" t="s">
         <v>6</v>
@@ -6945,7 +7129,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B814" t="s">
         <v>5</v>
@@ -7097,7 +7281,7 @@
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B833" t="s">
         <v>6</v>
@@ -7105,7 +7289,7 @@
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B834" t="s">
         <v>5</v>
@@ -7145,7 +7329,7 @@
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B839" t="s">
         <v>6</v>
@@ -7169,7 +7353,7 @@
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B842" t="s">
         <v>5</v>
@@ -7201,7 +7385,7 @@
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B846" t="s">
         <v>5</v>
@@ -7281,7 +7465,7 @@
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B856" t="s">
         <v>5</v>
@@ -7289,7 +7473,7 @@
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B857" t="s">
         <v>6</v>
@@ -7297,7 +7481,7 @@
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B858" t="s">
         <v>5</v>
@@ -7409,7 +7593,7 @@
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B872" t="s">
         <v>6</v>
@@ -7513,7 +7697,7 @@
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B885" t="s">
         <v>5</v>
@@ -7537,7 +7721,7 @@
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B888" t="s">
         <v>5</v>
@@ -7577,7 +7761,7 @@
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B893" t="s">
         <v>5</v>
@@ -7601,7 +7785,7 @@
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B896" t="s">
         <v>5</v>
@@ -7609,7 +7793,7 @@
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B897" t="s">
         <v>6</v>
@@ -7673,7 +7857,7 @@
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B905" t="s">
         <v>5</v>
@@ -7737,7 +7921,7 @@
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B913" t="s">
         <v>6</v>
@@ -7817,7 +8001,7 @@
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B923" t="s">
         <v>6</v>
@@ -7825,7 +8009,7 @@
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B924" t="s">
         <v>5</v>
@@ -7857,7 +8041,7 @@
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B928" t="s">
         <v>6</v>
@@ -7921,7 +8105,7 @@
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B936" t="s">
         <v>5</v>
@@ -7937,7 +8121,7 @@
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B938" t="s">
         <v>5</v>
@@ -7945,7 +8129,7 @@
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B939" t="s">
         <v>5</v>
@@ -7985,7 +8169,7 @@
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B944" t="s">
         <v>5</v>
@@ -8137,7 +8321,7 @@
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B963" t="s">
         <v>6</v>
@@ -8185,7 +8369,7 @@
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B969" t="s">
         <v>6</v>
@@ -8233,7 +8417,7 @@
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B975" t="s">
         <v>5</v>
@@ -8265,7 +8449,7 @@
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B979" t="s">
         <v>5</v>
@@ -8337,7 +8521,7 @@
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B988" t="s">
         <v>6</v>
@@ -8385,7 +8569,7 @@
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B994" t="s">
         <v>6</v>
@@ -8553,7 +8737,7 @@
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1015" t="s">
         <v>5</v>
@@ -8673,7 +8857,7 @@
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1030" t="s">
         <v>5</v>
@@ -8761,7 +8945,7 @@
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1041" t="s">
         <v>6</v>
@@ -8822,7 +9006,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8841,15 +9025,15 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001818181818181818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
+        <v>0.002016129032258064</v>
+      </c>
+      <c r="B3">
         <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.02545454545454546</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8857,15 +9041,15 @@
         <v>0.002016129032258064</v>
       </c>
       <c r="B4">
-        <v>0.02545454545454546</v>
+        <v>0.2236363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.002016129032258064</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="B5">
-        <v>0.04545454545454546</v>
+        <v>0.2236363636363636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8873,15 +9057,15 @@
         <v>0.004032258064516129</v>
       </c>
       <c r="B6">
-        <v>0.04545454545454546</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.004032258064516129</v>
+        <v>0.006048387096774193</v>
       </c>
       <c r="B7">
-        <v>0.06181818181818182</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8889,7 +9073,7 @@
         <v>0.006048387096774193</v>
       </c>
       <c r="B8">
-        <v>0.06181818181818182</v>
+        <v>0.3836363636363636</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8897,15 +9081,15 @@
         <v>0.006048387096774193</v>
       </c>
       <c r="B9">
-        <v>0.08181818181818182</v>
+        <v>0.3872727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.008064516129032258</v>
+        <v>0.006048387096774193</v>
       </c>
       <c r="B10">
-        <v>0.08181818181818182</v>
+        <v>0.4163636363636364</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8913,423 +9097,423 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B11">
-        <v>0.1272727272727273</v>
+        <v>0.4163636363636364</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.01209677419354839</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="B12">
-        <v>0.1272727272727273</v>
+        <v>0.4618181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.01209677419354839</v>
+        <v>0.01008064516129032</v>
       </c>
       <c r="B13">
-        <v>0.1290909090909091</v>
+        <v>0.4618181818181818</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.01411290322580645</v>
+        <v>0.01008064516129032</v>
       </c>
       <c r="B14">
-        <v>0.1290909090909091</v>
+        <v>0.4945454545454546</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.01411290322580645</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="B15">
-        <v>0.1381818181818182</v>
+        <v>0.4945454545454546</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.01814516129032258</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="B16">
-        <v>0.1381818181818182</v>
+        <v>0.5418181818181819</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.01814516129032258</v>
+        <v>0.01411290322580645</v>
       </c>
       <c r="B17">
-        <v>0.1563636363636364</v>
+        <v>0.5418181818181819</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.02016129032258064</v>
+        <v>0.01411290322580645</v>
       </c>
       <c r="B18">
-        <v>0.1563636363636364</v>
+        <v>0.5490909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.02016129032258064</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B19">
-        <v>0.16</v>
+        <v>0.5490909090909091</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.02419354838709677</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B20">
-        <v>0.16</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.02419354838709677</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="B21">
-        <v>0.1690909090909091</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.0282258064516129</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="B22">
-        <v>0.1690909090909091</v>
+        <v>0.6509090909090909</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.0282258064516129</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="B23">
-        <v>0.1745454545454546</v>
+        <v>0.6509090909090909</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.03024193548387097</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="B24">
-        <v>0.1745454545454546</v>
+        <v>0.6763636363636364</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.03024193548387097</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="B25">
-        <v>0.1945454545454545</v>
+        <v>0.6763636363636364</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.03225806451612903</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="B26">
-        <v>0.1945454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.03225806451612903</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="B27">
-        <v>0.2018181818181818</v>
+        <v>0.6818181818181818</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.03427419354838709</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="B28">
-        <v>0.2018181818181818</v>
+        <v>0.6963636363636364</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.03427419354838709</v>
+        <v>0.02620967741935484</v>
       </c>
       <c r="B29">
-        <v>0.2436363636363636</v>
+        <v>0.6963636363636364</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.03629032258064516</v>
+        <v>0.02620967741935484</v>
       </c>
       <c r="B30">
-        <v>0.2436363636363636</v>
+        <v>0.7345454545454545</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.03629032258064516</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="B31">
-        <v>0.3145454545454546</v>
+        <v>0.7345454545454545</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.03830645161290323</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="B32">
-        <v>0.3145454545454546</v>
+        <v>0.7418181818181818</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.03830645161290323</v>
+        <v>0.03024193548387097</v>
       </c>
       <c r="B33">
-        <v>0.3436363636363636</v>
+        <v>0.7418181818181818</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.04032258064516129</v>
+        <v>0.03024193548387097</v>
       </c>
       <c r="B34">
-        <v>0.3436363636363636</v>
+        <v>0.7527272727272727</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.04032258064516129</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B35">
-        <v>0.3836363636363636</v>
+        <v>0.7527272727272727</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.04233870967741935</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B36">
-        <v>0.3836363636363636</v>
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.04233870967741935</v>
+        <v>0.03830645161290323</v>
       </c>
       <c r="B37">
-        <v>0.3945454545454545</v>
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.04435483870967742</v>
+        <v>0.03830645161290323</v>
       </c>
       <c r="B38">
-        <v>0.3945454545454545</v>
+        <v>0.7854545454545454</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.04435483870967742</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="B39">
-        <v>0.4018181818181818</v>
+        <v>0.7854545454545454</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.04637096774193548</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="B40">
-        <v>0.4018181818181818</v>
+        <v>0.8018181818181818</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.04637096774193548</v>
+        <v>0.04233870967741935</v>
       </c>
       <c r="B41">
-        <v>0.4054545454545455</v>
+        <v>0.8018181818181818</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.04838709677419355</v>
+        <v>0.04233870967741935</v>
       </c>
       <c r="B42">
-        <v>0.4054545454545455</v>
+        <v>0.8090909090909091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.04838709677419355</v>
+        <v>0.04637096774193548</v>
       </c>
       <c r="B43">
-        <v>0.4472727272727273</v>
+        <v>0.8090909090909091</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.05040322580645161</v>
+        <v>0.04637096774193548</v>
       </c>
       <c r="B44">
-        <v>0.4472727272727273</v>
+        <v>0.8127272727272727</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.05040322580645161</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="B45">
-        <v>0.4636363636363636</v>
+        <v>0.8127272727272727</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.05241935483870968</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="B46">
-        <v>0.4636363636363636</v>
+        <v>0.8454545454545455</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.05241935483870968</v>
+        <v>0.05040322580645161</v>
       </c>
       <c r="B47">
-        <v>0.4672727272727273</v>
+        <v>0.8454545454545455</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.05443548387096774</v>
+        <v>0.05040322580645161</v>
       </c>
       <c r="B48">
-        <v>0.4672727272727273</v>
+        <v>0.8545454545454545</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.05443548387096774</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="B49">
-        <v>0.48</v>
+        <v>0.8545454545454545</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.0564516129032258</v>
+        <v>0.05241935483870968</v>
       </c>
       <c r="B50">
-        <v>0.48</v>
+        <v>0.8563636363636363</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.0564516129032258</v>
+        <v>0.05443548387096774</v>
       </c>
       <c r="B51">
-        <v>0.5018181818181818</v>
+        <v>0.8563636363636363</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>0.06048387096774194</v>
+        <v>0.05443548387096774</v>
       </c>
       <c r="B52">
-        <v>0.5018181818181818</v>
+        <v>0.8690909090909091</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0.06048387096774194</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="B53">
-        <v>0.509090909090909</v>
+        <v>0.8690909090909091</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.0625</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="B54">
-        <v>0.509090909090909</v>
+        <v>0.8745454545454545</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.0625</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="B55">
-        <v>0.5109090909090909</v>
+        <v>0.8745454545454545</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>0.06451612903225806</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="B56">
-        <v>0.5109090909090909</v>
+        <v>0.8781818181818182</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="B57">
-        <v>0.5272727272727272</v>
+        <v>0.8781818181818182</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0.06854838709677419</v>
+        <v>0.0625</v>
       </c>
       <c r="B58">
-        <v>0.5272727272727272</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>0.06854838709677419</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B59">
-        <v>0.5309090909090909</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>0.07056451612903226</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B60">
-        <v>0.5309090909090909</v>
+        <v>0.8836363636363637</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>0.07056451612903226</v>
+        <v>0.06653225806451613</v>
       </c>
       <c r="B61">
-        <v>0.5654545454545454</v>
+        <v>0.8836363636363637</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>0.07258064516129033</v>
+        <v>0.06653225806451613</v>
       </c>
       <c r="B62">
-        <v>0.5654545454545454</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>0.07258064516129033</v>
+        <v>0.07459677419354839</v>
       </c>
       <c r="B63">
-        <v>0.5672727272727273</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9337,15 +9521,15 @@
         <v>0.07459677419354839</v>
       </c>
       <c r="B64">
-        <v>0.5672727272727273</v>
+        <v>0.9036363636363637</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0.07459677419354839</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="B65">
-        <v>0.5781818181818181</v>
+        <v>0.9036363636363637</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9353,15 +9537,15 @@
         <v>0.07661290322580645</v>
       </c>
       <c r="B66">
-        <v>0.5781818181818181</v>
+        <v>0.9072727272727272</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>0.07661290322580645</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="B67">
-        <v>0.5945454545454546</v>
+        <v>0.9072727272727272</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -9369,23 +9553,23 @@
         <v>0.08064516129032258</v>
       </c>
       <c r="B68">
-        <v>0.5945454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>0.08064516129032258</v>
+        <v>0.08266129032258064</v>
       </c>
       <c r="B69">
-        <v>0.6054545454545455</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>0.0846774193548387</v>
+        <v>0.08266129032258064</v>
       </c>
       <c r="B70">
-        <v>0.6054545454545455</v>
+        <v>0.9109090909090909</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9393,1742 +9577,558 @@
         <v>0.0846774193548387</v>
       </c>
       <c r="B71">
-        <v>0.610909090909091</v>
+        <v>0.9109090909090909</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>0.08669354838709678</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="B72">
-        <v>0.610909090909091</v>
+        <v>0.9163636363636364</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.08669354838709678</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="B73">
-        <v>0.62</v>
+        <v>0.9163636363636364</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>0.08870967741935484</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="B74">
-        <v>0.62</v>
+        <v>0.9181818181818182</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>0.08870967741935484</v>
+        <v>0.09879032258064516</v>
       </c>
       <c r="B75">
-        <v>0.6236363636363637</v>
+        <v>0.9181818181818182</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>0.09072580645161291</v>
+        <v>0.09879032258064516</v>
       </c>
       <c r="B76">
-        <v>0.6236363636363637</v>
+        <v>0.9254545454545454</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>0.09072580645161291</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="B77">
-        <v>0.6381818181818182</v>
+        <v>0.9254545454545454</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>0.09274193548387097</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="B78">
-        <v>0.6381818181818182</v>
+        <v>0.9272727272727272</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>0.09274193548387097</v>
+        <v>0.1028225806451613</v>
       </c>
       <c r="B79">
-        <v>0.6454545454545455</v>
+        <v>0.9272727272727272</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>0.09677419354838709</v>
+        <v>0.1028225806451613</v>
       </c>
       <c r="B80">
-        <v>0.6454545454545455</v>
+        <v>0.9309090909090909</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>0.09677419354838709</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="B81">
-        <v>0.6509090909090909</v>
+        <v>0.9309090909090909</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>0.09879032258064516</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="B82">
-        <v>0.6509090909090909</v>
+        <v>0.9345454545454546</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>0.09879032258064516</v>
+        <v>0.1068548387096774</v>
       </c>
       <c r="B83">
-        <v>0.6545454545454545</v>
+        <v>0.9345454545454546</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>0.1008064516129032</v>
+        <v>0.1068548387096774</v>
       </c>
       <c r="B84">
-        <v>0.6545454545454545</v>
+        <v>0.9381818181818182</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>0.1008064516129032</v>
+        <v>0.1068548387096774</v>
       </c>
       <c r="B85">
-        <v>0.6563636363636364</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>0.1048387096774194</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="B86">
-        <v>0.6563636363636364</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>0.1048387096774194</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="B87">
-        <v>0.66</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>0.1068548387096774</v>
+        <v>0.1108870967741935</v>
       </c>
       <c r="B88">
-        <v>0.66</v>
+        <v>0.9418181818181818</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>0.1068548387096774</v>
+        <v>0.1108870967741935</v>
       </c>
       <c r="B89">
-        <v>0.6618181818181819</v>
+        <v>0.9472727272727273</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>0.1108870967741935</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="B90">
-        <v>0.6618181818181819</v>
+        <v>0.9472727272727273</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>0.1108870967741935</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="B91">
-        <v>0.6654545454545454</v>
+        <v>0.9490909090909091</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>0.1129032258064516</v>
+        <v>0.125</v>
       </c>
       <c r="B92">
-        <v>0.6654545454545454</v>
+        <v>0.9490909090909091</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>0.1129032258064516</v>
+        <v>0.125</v>
       </c>
       <c r="B93">
-        <v>0.6745454545454546</v>
+        <v>0.9509090909090909</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>0.1169354838709677</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B94">
-        <v>0.6745454545454546</v>
+        <v>0.9509090909090909</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>0.1169354838709677</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B95">
-        <v>0.68</v>
+        <v>0.9563636363636364</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>0.1189516129032258</v>
+        <v>0.1350806451612903</v>
       </c>
       <c r="B96">
-        <v>0.68</v>
+        <v>0.9563636363636364</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>0.1189516129032258</v>
+        <v>0.1350806451612903</v>
       </c>
       <c r="B97">
-        <v>0.6818181818181818</v>
+        <v>0.9581818181818181</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>0.1209677419354839</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="B98">
-        <v>0.6818181818181818</v>
+        <v>0.9581818181818181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>0.1209677419354839</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="B99">
-        <v>0.6854545454545454</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>0.125</v>
+        <v>0.1794354838709677</v>
       </c>
       <c r="B100">
-        <v>0.6854545454545454</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>0.125</v>
+        <v>0.1794354838709677</v>
       </c>
       <c r="B101">
-        <v>0.6872727272727273</v>
+        <v>0.9618181818181818</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>0.1270161290322581</v>
+        <v>0.1834677419354839</v>
       </c>
       <c r="B102">
-        <v>0.6872727272727273</v>
+        <v>0.9618181818181818</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>0.1270161290322581</v>
+        <v>0.1834677419354839</v>
       </c>
       <c r="B103">
-        <v>0.6890909090909091</v>
+        <v>0.9654545454545455</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>0.1370967741935484</v>
+        <v>0.1875</v>
       </c>
       <c r="B104">
-        <v>0.6890909090909091</v>
+        <v>0.9654545454545455</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>0.1370967741935484</v>
+        <v>0.1875</v>
       </c>
       <c r="B105">
-        <v>0.6945454545454546</v>
+        <v>0.9672727272727273</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>0.1391129032258064</v>
+        <v>0.1915322580645161</v>
       </c>
       <c r="B106">
-        <v>0.6945454545454546</v>
+        <v>0.9672727272727273</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>0.1391129032258064</v>
+        <v>0.1915322580645161</v>
       </c>
       <c r="B107">
-        <v>0.6963636363636364</v>
+        <v>0.9690909090909091</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>0.1431451612903226</v>
+        <v>0.2076612903225807</v>
       </c>
       <c r="B108">
-        <v>0.6963636363636364</v>
+        <v>0.9690909090909091</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>0.1431451612903226</v>
+        <v>0.2076612903225807</v>
       </c>
       <c r="B109">
-        <v>0.7109090909090909</v>
+        <v>0.9709090909090909</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>0.1451612903225807</v>
+        <v>0.2278225806451613</v>
       </c>
       <c r="B110">
-        <v>0.7109090909090909</v>
+        <v>0.9709090909090909</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>0.1451612903225807</v>
+        <v>0.2278225806451613</v>
       </c>
       <c r="B111">
-        <v>0.72</v>
+        <v>0.9727272727272728</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>0.1491935483870968</v>
+        <v>0.2641129032258064</v>
       </c>
       <c r="B112">
-        <v>0.72</v>
+        <v>0.9727272727272728</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>0.1491935483870968</v>
+        <v>0.2641129032258064</v>
       </c>
       <c r="B113">
-        <v>0.7236363636363636</v>
+        <v>0.9745454545454545</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>0.1532258064516129</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="B114">
-        <v>0.7236363636363636</v>
+        <v>0.9745454545454545</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>0.1532258064516129</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="B115">
-        <v>0.7254545454545455</v>
+        <v>0.9763636363636363</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>0.157258064516129</v>
+        <v>0.2963709677419355</v>
       </c>
       <c r="B116">
-        <v>0.7254545454545455</v>
+        <v>0.9763636363636363</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>0.157258064516129</v>
+        <v>0.2963709677419355</v>
       </c>
       <c r="B117">
-        <v>0.7290909090909091</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>0.1592741935483871</v>
+        <v>0.3568548387096774</v>
       </c>
       <c r="B118">
-        <v>0.7290909090909091</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>0.1592741935483871</v>
+        <v>0.3568548387096774</v>
       </c>
       <c r="B119">
-        <v>0.7436363636363637</v>
+        <v>0.9818181818181818</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>0.1653225806451613</v>
+        <v>0.4475806451612903</v>
       </c>
       <c r="B120">
-        <v>0.7436363636363637</v>
+        <v>0.9818181818181818</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>0.1653225806451613</v>
+        <v>0.4475806451612903</v>
       </c>
       <c r="B121">
-        <v>0.7454545454545455</v>
+        <v>0.9836363636363636</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>0.1673387096774193</v>
+        <v>0.5221774193548387</v>
       </c>
       <c r="B122">
-        <v>0.7454545454545455</v>
+        <v>0.9836363636363636</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>0.1673387096774193</v>
+        <v>0.5221774193548387</v>
       </c>
       <c r="B123">
-        <v>0.7563636363636363</v>
+        <v>0.9854545454545455</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>0.1693548387096774</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="B124">
-        <v>0.7563636363636363</v>
+        <v>0.9854545454545455</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>0.1693548387096774</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="B125">
-        <v>0.7581818181818182</v>
+        <v>0.9872727272727273</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>0.1713709677419355</v>
+        <v>0.5463709677419355</v>
       </c>
       <c r="B126">
-        <v>0.7581818181818182</v>
+        <v>0.9872727272727273</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>0.1713709677419355</v>
+        <v>0.5463709677419355</v>
       </c>
       <c r="B127">
-        <v>0.7618181818181818</v>
+        <v>0.9890909090909091</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>0.1733870967741936</v>
+        <v>0.7399193548387096</v>
       </c>
       <c r="B128">
-        <v>0.7618181818181818</v>
+        <v>0.9890909090909091</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>0.1733870967741936</v>
+        <v>0.7399193548387096</v>
       </c>
       <c r="B129">
-        <v>0.769090909090909</v>
+        <v>0.990909090909091</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>0.1754032258064516</v>
+        <v>0.7963709677419355</v>
       </c>
       <c r="B130">
-        <v>0.769090909090909</v>
+        <v>0.990909090909091</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>0.1754032258064516</v>
+        <v>0.7963709677419355</v>
       </c>
       <c r="B131">
-        <v>0.7727272727272727</v>
+        <v>0.9927272727272727</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>0.1854838709677419</v>
+        <v>0.8729838709677419</v>
       </c>
       <c r="B132">
-        <v>0.7727272727272727</v>
+        <v>0.9927272727272727</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>0.1854838709677419</v>
+        <v>0.8729838709677419</v>
       </c>
       <c r="B133">
-        <v>0.7745454545454545</v>
+        <v>0.9945454545454545</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>0.1875</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="B134">
-        <v>0.7745454545454545</v>
+        <v>0.9945454545454545</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>0.1875</v>
+        <v>0.9395161290322581</v>
       </c>
       <c r="B135">
-        <v>0.7763636363636364</v>
+        <v>0.9963636363636363</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>0.1895161290322581</v>
+        <v>0.9798387096774194</v>
       </c>
       <c r="B136">
-        <v>0.7763636363636364</v>
+        <v>0.9963636363636363</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>0.1895161290322581</v>
+        <v>0.9798387096774194</v>
       </c>
       <c r="B137">
-        <v>0.78</v>
+        <v>0.9981818181818182</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>0.1895161290322581</v>
+        <v>0.9858870967741935</v>
       </c>
       <c r="B138">
-        <v>0.7836363636363637</v>
+        <v>0.9981818181818182</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>0.1915322580645161</v>
+        <v>0.9858870967741935</v>
       </c>
       <c r="B139">
-        <v>0.7836363636363637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>0.1915322580645161</v>
+        <v>1</v>
       </c>
       <c r="B140">
-        <v>0.7872727272727272</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="B141">
-        <v>0.7872727272727272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="B142">
-        <v>0.7890909090909091</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>0.2016129032258064</v>
-      </c>
-      <c r="B143">
-        <v>0.7890909090909091</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>0.2016129032258064</v>
-      </c>
-      <c r="B144">
-        <v>0.7981818181818182</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>0.2056451612903226</v>
-      </c>
-      <c r="B145">
-        <v>0.7981818181818182</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>0.2056451612903226</v>
-      </c>
-      <c r="B146">
-        <v>0.8018181818181818</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>0.2076612903225807</v>
-      </c>
-      <c r="B147">
-        <v>0.8018181818181818</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>0.2076612903225807</v>
-      </c>
-      <c r="B148">
-        <v>0.8054545454545454</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>0.2076612903225807</v>
-      </c>
-      <c r="B149">
-        <v>0.8145454545454546</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
-        <v>0.2116935483870968</v>
-      </c>
-      <c r="B150">
-        <v>0.8145454545454546</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>0.2116935483870968</v>
-      </c>
-      <c r="B151">
-        <v>0.8163636363636364</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
-        <v>0.2157258064516129</v>
-      </c>
-      <c r="B152">
-        <v>0.8163636363636364</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
-        <v>0.2157258064516129</v>
-      </c>
-      <c r="B153">
-        <v>0.8181818181818182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
-        <v>0.217741935483871</v>
-      </c>
-      <c r="B154">
-        <v>0.8181818181818182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
-        <v>0.217741935483871</v>
-      </c>
-      <c r="B155">
-        <v>0.8218181818181818</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
-        <v>0.2217741935483871</v>
-      </c>
-      <c r="B156">
-        <v>0.8218181818181818</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>0.2217741935483871</v>
-      </c>
-      <c r="B157">
-        <v>0.8236363636363636</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
-        <v>0.2237903225806452</v>
-      </c>
-      <c r="B158">
-        <v>0.8236363636363636</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
-        <v>0.2237903225806452</v>
-      </c>
-      <c r="B159">
-        <v>0.8272727272727273</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
-        <v>0.2278225806451613</v>
-      </c>
-      <c r="B160">
-        <v>0.8272727272727273</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
-        <v>0.2278225806451613</v>
-      </c>
-      <c r="B161">
-        <v>0.8345454545454546</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162">
-        <v>0.2298387096774193</v>
-      </c>
-      <c r="B162">
-        <v>0.8345454545454546</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
-        <v>0.2298387096774193</v>
-      </c>
-      <c r="B163">
-        <v>0.8363636363636363</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
-        <v>0.2318548387096774</v>
-      </c>
-      <c r="B164">
-        <v>0.8363636363636363</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165">
-        <v>0.2318548387096774</v>
-      </c>
-      <c r="B165">
-        <v>0.8381818181818181</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
-        <v>0.2338709677419355</v>
-      </c>
-      <c r="B166">
-        <v>0.8381818181818181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
-        <v>0.2338709677419355</v>
-      </c>
-      <c r="B167">
-        <v>0.8418181818181818</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
-        <v>0.2379032258064516</v>
-      </c>
-      <c r="B168">
-        <v>0.8418181818181818</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169">
-        <v>0.2379032258064516</v>
-      </c>
-      <c r="B169">
-        <v>0.8454545454545455</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170">
-        <v>0.2399193548387097</v>
-      </c>
-      <c r="B170">
-        <v>0.8454545454545455</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171">
-        <v>0.2399193548387097</v>
-      </c>
-      <c r="B171">
-        <v>0.8509090909090909</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172">
-        <v>0.2439516129032258</v>
-      </c>
-      <c r="B172">
-        <v>0.8509090909090909</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173">
-        <v>0.2439516129032258</v>
-      </c>
-      <c r="B173">
-        <v>0.8545454545454545</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174">
-        <v>0.25</v>
-      </c>
-      <c r="B174">
-        <v>0.8545454545454545</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
-        <v>0.25</v>
-      </c>
-      <c r="B175">
-        <v>0.8581818181818182</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176">
-        <v>0.2520161290322581</v>
-      </c>
-      <c r="B176">
-        <v>0.8581818181818182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>0.2520161290322581</v>
-      </c>
-      <c r="B177">
-        <v>0.8618181818181818</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
-        <v>0.2560483870967742</v>
-      </c>
-      <c r="B178">
-        <v>0.8618181818181818</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
-        <v>0.2560483870967742</v>
-      </c>
-      <c r="B179">
-        <v>0.8636363636363636</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>0.2580645161290323</v>
-      </c>
-      <c r="B180">
-        <v>0.8636363636363636</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
-        <v>0.2580645161290323</v>
-      </c>
-      <c r="B181">
-        <v>0.8654545454545455</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
-        <v>0.2620967741935484</v>
-      </c>
-      <c r="B182">
-        <v>0.8654545454545455</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>0.2620967741935484</v>
-      </c>
-      <c r="B183">
-        <v>0.8672727272727273</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
-        <v>0.2661290322580645</v>
-      </c>
-      <c r="B184">
-        <v>0.8672727272727273</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
-        <v>0.2661290322580645</v>
-      </c>
-      <c r="B185">
-        <v>0.8690909090909091</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
-        <v>0.2701612903225806</v>
-      </c>
-      <c r="B186">
-        <v>0.8690909090909091</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
-        <v>0.2701612903225806</v>
-      </c>
-      <c r="B187">
-        <v>0.8709090909090909</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
-        <v>0.2721774193548387</v>
-      </c>
-      <c r="B188">
-        <v>0.8709090909090909</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>0.2721774193548387</v>
-      </c>
-      <c r="B189">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
-        <v>0.2762096774193548</v>
-      </c>
-      <c r="B190">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
-        <v>0.2762096774193548</v>
-      </c>
-      <c r="B191">
-        <v>0.8818181818181818</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
-        <v>0.2802419354838709</v>
-      </c>
-      <c r="B192">
-        <v>0.8818181818181818</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193">
-        <v>0.2802419354838709</v>
-      </c>
-      <c r="B193">
-        <v>0.8854545454545455</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
-        <v>0.2842741935483871</v>
-      </c>
-      <c r="B194">
-        <v>0.8854545454545455</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195">
-        <v>0.2842741935483871</v>
-      </c>
-      <c r="B195">
-        <v>0.8927272727272727</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
-        <v>0.2883064516129032</v>
-      </c>
-      <c r="B196">
-        <v>0.8927272727272727</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197">
-        <v>0.2883064516129032</v>
-      </c>
-      <c r="B197">
-        <v>0.8963636363636364</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198">
-        <v>0.2923387096774194</v>
-      </c>
-      <c r="B198">
-        <v>0.8963636363636364</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199">
-        <v>0.2923387096774194</v>
-      </c>
-      <c r="B199">
-        <v>0.9018181818181819</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200">
-        <v>0.2943548387096774</v>
-      </c>
-      <c r="B200">
-        <v>0.9018181818181819</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201">
-        <v>0.2943548387096774</v>
-      </c>
-      <c r="B201">
-        <v>0.9054545454545454</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202">
-        <v>0.2963709677419355</v>
-      </c>
-      <c r="B202">
-        <v>0.9054545454545454</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
-        <v>0.2963709677419355</v>
-      </c>
-      <c r="B203">
-        <v>0.9109090909090909</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204">
-        <v>0.2983870967741936</v>
-      </c>
-      <c r="B204">
-        <v>0.9109090909090909</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205">
-        <v>0.2983870967741936</v>
-      </c>
-      <c r="B205">
-        <v>0.9127272727272727</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206">
-        <v>0.3024193548387097</v>
-      </c>
-      <c r="B206">
-        <v>0.9127272727272727</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207">
-        <v>0.3024193548387097</v>
-      </c>
-      <c r="B207">
-        <v>0.9145454545454546</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208">
-        <v>0.3044354838709677</v>
-      </c>
-      <c r="B208">
-        <v>0.9145454545454546</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
-        <v>0.3044354838709677</v>
-      </c>
-      <c r="B209">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210">
-        <v>0.3104838709677419</v>
-      </c>
-      <c r="B210">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
-        <v>0.3104838709677419</v>
-      </c>
-      <c r="B211">
-        <v>0.9218181818181819</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212">
-        <v>0.3125</v>
-      </c>
-      <c r="B212">
-        <v>0.9218181818181819</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213">
-        <v>0.3125</v>
-      </c>
-      <c r="B213">
-        <v>0.9236363636363636</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214">
-        <v>0.3245967741935484</v>
-      </c>
-      <c r="B214">
-        <v>0.9236363636363636</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215">
-        <v>0.3245967741935484</v>
-      </c>
-      <c r="B215">
-        <v>0.9254545454545454</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216">
-        <v>0.3306451612903226</v>
-      </c>
-      <c r="B216">
-        <v>0.9254545454545454</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
-        <v>0.3306451612903226</v>
-      </c>
-      <c r="B217">
-        <v>0.9272727272727272</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
-        <v>0.3387096774193548</v>
-      </c>
-      <c r="B218">
-        <v>0.9272727272727272</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219">
-        <v>0.3387096774193548</v>
-      </c>
-      <c r="B219">
-        <v>0.9290909090909091</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220">
-        <v>0.3427419354838709</v>
-      </c>
-      <c r="B220">
-        <v>0.9290909090909091</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
-        <v>0.3427419354838709</v>
-      </c>
-      <c r="B221">
-        <v>0.9309090909090909</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>0.3467741935483871</v>
-      </c>
-      <c r="B222">
-        <v>0.9309090909090909</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
-        <v>0.3467741935483871</v>
-      </c>
-      <c r="B223">
-        <v>0.9327272727272727</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>0.3487903225806452</v>
-      </c>
-      <c r="B224">
-        <v>0.9327272727272727</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>0.3487903225806452</v>
-      </c>
-      <c r="B225">
-        <v>0.9345454545454546</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>0.3508064516129032</v>
-      </c>
-      <c r="B226">
-        <v>0.9345454545454546</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>0.3508064516129032</v>
-      </c>
-      <c r="B227">
-        <v>0.9363636363636364</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>0.3568548387096774</v>
-      </c>
-      <c r="B228">
-        <v>0.9363636363636364</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>0.3568548387096774</v>
-      </c>
-      <c r="B229">
-        <v>0.9381818181818182</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>0.3649193548387097</v>
-      </c>
-      <c r="B230">
-        <v>0.9381818181818182</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>0.3649193548387097</v>
-      </c>
-      <c r="B231">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>0.3729838709677419</v>
-      </c>
-      <c r="B232">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>0.3729838709677419</v>
-      </c>
-      <c r="B233">
-        <v>0.9418181818181818</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>0.375</v>
-      </c>
-      <c r="B234">
-        <v>0.9418181818181818</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>0.375</v>
-      </c>
-      <c r="B235">
-        <v>0.9472727272727273</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>0.3891129032258064</v>
-      </c>
-      <c r="B236">
-        <v>0.9472727272727273</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>0.3891129032258064</v>
-      </c>
-      <c r="B237">
-        <v>0.9490909090909091</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>0.3971774193548387</v>
-      </c>
-      <c r="B238">
-        <v>0.9490909090909091</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>0.3971774193548387</v>
-      </c>
-      <c r="B239">
-        <v>0.9527272727272728</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>0.4233870967741936</v>
-      </c>
-      <c r="B240">
-        <v>0.9527272727272728</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>0.4233870967741936</v>
-      </c>
-      <c r="B241">
-        <v>0.9545454545454546</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>0.4274193548387097</v>
-      </c>
-      <c r="B242">
-        <v>0.9545454545454546</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>0.4274193548387097</v>
-      </c>
-      <c r="B243">
-        <v>0.9563636363636364</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>0.4314516129032258</v>
-      </c>
-      <c r="B244">
-        <v>0.9563636363636364</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>0.4314516129032258</v>
-      </c>
-      <c r="B245">
-        <v>0.9581818181818181</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>0.4334677419354839</v>
-      </c>
-      <c r="B246">
-        <v>0.9581818181818181</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>0.4334677419354839</v>
-      </c>
-      <c r="B247">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>0.4415322580645161</v>
-      </c>
-      <c r="B248">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>0.4415322580645161</v>
-      </c>
-      <c r="B249">
-        <v>0.9618181818181818</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>0.4475806451612903</v>
-      </c>
-      <c r="B250">
-        <v>0.9618181818181818</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>0.4475806451612903</v>
-      </c>
-      <c r="B251">
-        <v>0.9636363636363636</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
-        <v>0.4576612903225806</v>
-      </c>
-      <c r="B252">
-        <v>0.9636363636363636</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>0.4576612903225806</v>
-      </c>
-      <c r="B253">
-        <v>0.9654545454545455</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
-        <v>0.4737903225806452</v>
-      </c>
-      <c r="B254">
-        <v>0.9654545454545455</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>0.4737903225806452</v>
-      </c>
-      <c r="B255">
-        <v>0.9709090909090909</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
-        <v>0.4758064516129032</v>
-      </c>
-      <c r="B256">
-        <v>0.9709090909090909</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>0.4758064516129032</v>
-      </c>
-      <c r="B257">
-        <v>0.9727272727272728</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>0.4879032258064516</v>
-      </c>
-      <c r="B258">
-        <v>0.9727272727272728</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
-        <v>0.4879032258064516</v>
-      </c>
-      <c r="B259">
-        <v>0.9745454545454545</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>0.5</v>
-      </c>
-      <c r="B260">
-        <v>0.9745454545454545</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261">
-        <v>0.5</v>
-      </c>
-      <c r="B261">
-        <v>0.9763636363636363</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262">
-        <v>0.5120967741935484</v>
-      </c>
-      <c r="B262">
-        <v>0.9763636363636363</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263">
-        <v>0.5120967741935484</v>
-      </c>
-      <c r="B263">
-        <v>0.9781818181818182</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264">
-        <v>0.5201612903225806</v>
-      </c>
-      <c r="B264">
-        <v>0.9781818181818182</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265">
-        <v>0.5201612903225806</v>
-      </c>
-      <c r="B265">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266">
-        <v>0.5584677419354839</v>
-      </c>
-      <c r="B266">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267">
-        <v>0.5584677419354839</v>
-      </c>
-      <c r="B267">
-        <v>0.9818181818181818</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268">
-        <v>0.5745967741935484</v>
-      </c>
-      <c r="B268">
-        <v>0.9818181818181818</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269">
-        <v>0.5745967741935484</v>
-      </c>
-      <c r="B269">
-        <v>0.9836363636363636</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270">
-        <v>0.5786290322580645</v>
-      </c>
-      <c r="B270">
-        <v>0.9836363636363636</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271">
-        <v>0.5786290322580645</v>
-      </c>
-      <c r="B271">
-        <v>0.9854545454545455</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="B272">
-        <v>0.9854545454545455</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="B273">
-        <v>0.9872727272727273</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274">
-        <v>0.6532258064516129</v>
-      </c>
-      <c r="B274">
-        <v>0.9872727272727273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275">
-        <v>0.6532258064516129</v>
-      </c>
-      <c r="B275">
-        <v>0.9890909090909091</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276">
-        <v>0.6633064516129032</v>
-      </c>
-      <c r="B276">
-        <v>0.9890909090909091</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277">
-        <v>0.6633064516129032</v>
-      </c>
-      <c r="B277">
-        <v>0.990909090909091</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278">
-        <v>0.8346774193548387</v>
-      </c>
-      <c r="B278">
-        <v>0.990909090909091</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279">
-        <v>0.8346774193548387</v>
-      </c>
-      <c r="B279">
-        <v>0.9927272727272727</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280">
-        <v>0.8608870967741935</v>
-      </c>
-      <c r="B280">
-        <v>0.9927272727272727</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281">
-        <v>0.8608870967741935</v>
-      </c>
-      <c r="B281">
-        <v>0.9945454545454545</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282">
-        <v>0.9133064516129032</v>
-      </c>
-      <c r="B282">
-        <v>0.9945454545454545</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283">
-        <v>0.9133064516129032</v>
-      </c>
-      <c r="B283">
-        <v>0.9963636363636363</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284">
-        <v>0.9153225806451613</v>
-      </c>
-      <c r="B284">
-        <v>0.9963636363636363</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285">
-        <v>0.9153225806451613</v>
-      </c>
-      <c r="B285">
-        <v>0.9981818181818182</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286">
-        <v>0.9516129032258065</v>
-      </c>
-      <c r="B286">
-        <v>0.9981818181818182</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287">
-        <v>0.9516129032258065</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288">
-        <v>1</v>
-      </c>
-      <c r="B288">
         <v>1</v>
       </c>
     </row>
@@ -11152,7 +10152,2685 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.8811693548387096</v>
+        <v>0.9611217008797653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2">
+        <v>0.1676095962524414</v>
+      </c>
+      <c r="B2">
+        <v>0.02180118560791016</v>
+      </c>
+      <c r="C2">
+        <v>0.8006597549481621</v>
+      </c>
+      <c r="D2">
+        <v>0.8532066698166364</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>0.8609310548025928</v>
+      </c>
+      <c r="J2">
+        <v>0.788235294117647</v>
+      </c>
+      <c r="K2">
+        <v>0.8556275780789628</v>
+      </c>
+      <c r="L2">
+        <v>0.7788235294117647</v>
+      </c>
+      <c r="M2">
+        <v>0.8538597525044196</v>
+      </c>
+      <c r="N2">
+        <v>0.8183962264150944</v>
+      </c>
+      <c r="O2">
+        <v>0.8498233215547704</v>
+      </c>
+      <c r="P2">
+        <v>0.817966903073286</v>
+      </c>
+      <c r="Q2">
+        <v>0.8457916421424367</v>
+      </c>
+      <c r="R2">
+        <v>0.02108770866514694</v>
+      </c>
+      <c r="S2">
+        <v>0.003655280702303511</v>
+      </c>
+      <c r="T2">
+        <v>0.01578196063294941</v>
+      </c>
+      <c r="U2">
+        <v>0.005145544054678182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>0.1502086162567139</v>
+      </c>
+      <c r="B3">
+        <v>0.02100119590759277</v>
+      </c>
+      <c r="C3">
+        <v>0.8063147973609802</v>
+      </c>
+      <c r="D3">
+        <v>0.8621601141375883</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>0.8047058823529412</v>
+      </c>
+      <c r="I3">
+        <v>0.8697701826753094</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0.8650559811431938</v>
+      </c>
+      <c r="L3">
+        <v>0.7811764705882352</v>
+      </c>
+      <c r="M3">
+        <v>0.8591632292280496</v>
+      </c>
+      <c r="N3">
+        <v>0.8231132075471698</v>
+      </c>
+      <c r="O3">
+        <v>0.8621908127208481</v>
+      </c>
+      <c r="P3">
+        <v>0.8226950354609929</v>
+      </c>
+      <c r="Q3">
+        <v>0.8546203649205415</v>
+      </c>
+      <c r="R3">
+        <v>0.00342945701989158</v>
+      </c>
+      <c r="S3">
+        <v>0.001549419634979725</v>
+      </c>
+      <c r="T3">
+        <v>0.01565057128662915</v>
+      </c>
+      <c r="U3">
+        <v>0.005140608304139887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>0.1500085353851318</v>
+      </c>
+      <c r="B4">
+        <v>0.01920104026794434</v>
+      </c>
+      <c r="C4">
+        <v>0.8133836003770029</v>
+      </c>
+      <c r="D4">
+        <v>0.8698176390576664</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>0.8094117647058824</v>
+      </c>
+      <c r="I4">
+        <v>0.8803771361225693</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>0.8727165586328816</v>
+      </c>
+      <c r="L4">
+        <v>0.7976470588235294</v>
+      </c>
+      <c r="M4">
+        <v>0.8632881555686506</v>
+      </c>
+      <c r="N4">
+        <v>0.8325471698113207</v>
+      </c>
+      <c r="O4">
+        <v>0.8680800942285041</v>
+      </c>
+      <c r="P4">
+        <v>0.8274231678486997</v>
+      </c>
+      <c r="Q4">
+        <v>0.8646262507357269</v>
+      </c>
+      <c r="R4">
+        <v>0.005899541315676987</v>
+      </c>
+      <c r="S4">
+        <v>0.0003999471771024199</v>
+      </c>
+      <c r="T4">
+        <v>0.01418813670814267</v>
+      </c>
+      <c r="U4">
+        <v>0.006205005114310669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>0.1656094551086426</v>
+      </c>
+      <c r="B5">
+        <v>0.02140116691589355</v>
+      </c>
+      <c r="C5">
+        <v>0.8185673892554194</v>
+      </c>
+      <c r="D5">
+        <v>0.8750012486419927</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>0.8188235294117647</v>
+      </c>
+      <c r="I5">
+        <v>0.8856806128461991</v>
+      </c>
+      <c r="J5">
+        <v>0.8117647058823529</v>
+      </c>
+      <c r="K5">
+        <v>0.8780200353565115</v>
+      </c>
+      <c r="L5">
+        <v>0.7976470588235294</v>
+      </c>
+      <c r="M5">
+        <v>0.8668238067177372</v>
+      </c>
+      <c r="N5">
+        <v>0.8372641509433962</v>
+      </c>
+      <c r="O5">
+        <v>0.8745583038869258</v>
+      </c>
+      <c r="P5">
+        <v>0.8274231678486997</v>
+      </c>
+      <c r="Q5">
+        <v>0.8699234844025897</v>
+      </c>
+      <c r="R5">
+        <v>0.01030773473454454</v>
+      </c>
+      <c r="S5">
+        <v>0.001496688295971348</v>
+      </c>
+      <c r="T5">
+        <v>0.0135062365803462</v>
+      </c>
+      <c r="U5">
+        <v>0.006572858422108517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>0.158809232711792</v>
+      </c>
+      <c r="B6">
+        <v>0.01940107345581055</v>
+      </c>
+      <c r="C6">
+        <v>0.823751178133836</v>
+      </c>
+      <c r="D6">
+        <v>0.8813631311401581</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>0.8258823529411765</v>
+      </c>
+      <c r="I6">
+        <v>0.8909840895698291</v>
+      </c>
+      <c r="J6">
+        <v>0.8164705882352942</v>
+      </c>
+      <c r="K6">
+        <v>0.8845020624631703</v>
+      </c>
+      <c r="L6">
+        <v>0.8070588235294117</v>
+      </c>
+      <c r="M6">
+        <v>0.8738951090159104</v>
+      </c>
+      <c r="N6">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="O6">
+        <v>0.8810365135453475</v>
+      </c>
+      <c r="P6">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="Q6">
+        <v>0.8763978811065333</v>
+      </c>
+      <c r="R6">
+        <v>0.00324976135264744</v>
+      </c>
+      <c r="S6">
+        <v>0.0008000135475042733</v>
+      </c>
+      <c r="T6">
+        <v>0.01117710689902427</v>
+      </c>
+      <c r="U6">
+        <v>0.00604892506738097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>0.1556089401245117</v>
+      </c>
+      <c r="B7">
+        <v>0.01940107345581055</v>
+      </c>
+      <c r="C7">
+        <v>0.824693685202639</v>
+      </c>
+      <c r="D7">
+        <v>0.8885488888662758</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>0.8282352941176471</v>
+      </c>
+      <c r="I7">
+        <v>0.8968768414849735</v>
+      </c>
+      <c r="J7">
+        <v>0.8141176470588235</v>
+      </c>
+      <c r="K7">
+        <v>0.8921626399528579</v>
+      </c>
+      <c r="L7">
+        <v>0.8094117647058824</v>
+      </c>
+      <c r="M7">
+        <v>0.8774307601649971</v>
+      </c>
+      <c r="N7">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="O7">
+        <v>0.8898704358068316</v>
+      </c>
+      <c r="P7">
+        <v>0.8321513002364066</v>
+      </c>
+      <c r="Q7">
+        <v>0.8864037669217186</v>
+      </c>
+      <c r="R7">
+        <v>0.003262039097300017</v>
+      </c>
+      <c r="S7">
+        <v>0.0004898819214545809</v>
+      </c>
+      <c r="T7">
+        <v>0.01128303979701663</v>
+      </c>
+      <c r="U7">
+        <v>0.006517281826442024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>0.1580090045928955</v>
+      </c>
+      <c r="B8">
+        <v>0.01880111694335938</v>
+      </c>
+      <c r="C8">
+        <v>0.8279924599434496</v>
+      </c>
+      <c r="D8">
+        <v>0.8927902133276723</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>0.8329411764705882</v>
+      </c>
+      <c r="I8">
+        <v>0.901591043017089</v>
+      </c>
+      <c r="J8">
+        <v>0.8164705882352942</v>
+      </c>
+      <c r="K8">
+        <v>0.8968768414849735</v>
+      </c>
+      <c r="L8">
+        <v>0.8141176470588235</v>
+      </c>
+      <c r="M8">
+        <v>0.8815556865055981</v>
+      </c>
+      <c r="N8">
+        <v>0.839622641509434</v>
+      </c>
+      <c r="O8">
+        <v>0.8928150765606596</v>
+      </c>
+      <c r="P8">
+        <v>0.8368794326241135</v>
+      </c>
+      <c r="Q8">
+        <v>0.8911124190700412</v>
+      </c>
+      <c r="R8">
+        <v>0.001673426744630772</v>
+      </c>
+      <c r="S8">
+        <v>0.0007484938951437034</v>
+      </c>
+      <c r="T8">
+        <v>0.01062167231788194</v>
+      </c>
+      <c r="U8">
+        <v>0.006681097777841069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>0.1632091999053955</v>
+      </c>
+      <c r="B9">
+        <v>0.020001220703125</v>
+      </c>
+      <c r="C9">
+        <v>0.8322337417530632</v>
+      </c>
+      <c r="D9">
+        <v>0.8979738228302937</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>0.8352941176470589</v>
+      </c>
+      <c r="I9">
+        <v>0.9074837949322333</v>
+      </c>
+      <c r="J9">
+        <v>0.8188235294117647</v>
+      </c>
+      <c r="K9">
+        <v>0.901591043017089</v>
+      </c>
+      <c r="L9">
+        <v>0.8211764705882353</v>
+      </c>
+      <c r="M9">
+        <v>0.8845020624631703</v>
+      </c>
+      <c r="N9">
+        <v>0.8466981132075472</v>
+      </c>
+      <c r="O9">
+        <v>0.9004711425206124</v>
+      </c>
+      <c r="P9">
+        <v>0.8392434988179669</v>
+      </c>
+      <c r="Q9">
+        <v>0.8958210712183637</v>
+      </c>
+      <c r="R9">
+        <v>0.004622062863245154</v>
+      </c>
+      <c r="S9">
+        <v>0.001549265738956272</v>
+      </c>
+      <c r="T9">
+        <v>0.01067612973519239</v>
+      </c>
+      <c r="U9">
+        <v>0.007692634448444127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>0.1616092205047607</v>
+      </c>
+      <c r="B10">
+        <v>0.01940112113952637</v>
+      </c>
+      <c r="C10">
+        <v>0.8378887841658812</v>
+      </c>
+      <c r="D10">
+        <v>0.9015076704296476</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>0.8376470588235294</v>
+      </c>
+      <c r="I10">
+        <v>0.9086623453152622</v>
+      </c>
+      <c r="J10">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="K10">
+        <v>0.9045374189746611</v>
+      </c>
+      <c r="L10">
+        <v>0.8305882352941176</v>
+      </c>
+      <c r="M10">
+        <v>0.8903948143783147</v>
+      </c>
+      <c r="N10">
+        <v>0.8561320754716981</v>
+      </c>
+      <c r="O10">
+        <v>0.9004711425206124</v>
+      </c>
+      <c r="P10">
+        <v>0.8416075650118203</v>
+      </c>
+      <c r="Q10">
+        <v>0.9034726309593879</v>
+      </c>
+      <c r="R10">
+        <v>0.004128250352442284</v>
+      </c>
+      <c r="S10">
+        <v>0.00135667702980351</v>
+      </c>
+      <c r="T10">
+        <v>0.01101092789259466</v>
+      </c>
+      <c r="U10">
+        <v>0.00614491299486248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>0.1546088695526123</v>
+      </c>
+      <c r="B11">
+        <v>0.01840095520019531</v>
+      </c>
+      <c r="C11">
+        <v>0.8430725730442978</v>
+      </c>
+      <c r="D11">
+        <v>0.9048067095230004</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <v>0.8352941176470589</v>
+      </c>
+      <c r="I11">
+        <v>0.9116087212728344</v>
+      </c>
+      <c r="J11">
+        <v>0.8282352941176471</v>
+      </c>
+      <c r="K11">
+        <v>0.9092516205067767</v>
+      </c>
+      <c r="L11">
+        <v>0.8423529411764706</v>
+      </c>
+      <c r="M11">
+        <v>0.8939304655274013</v>
+      </c>
+      <c r="N11">
+        <v>0.8561320754716981</v>
+      </c>
+      <c r="O11">
+        <v>0.9034157832744405</v>
+      </c>
+      <c r="P11">
+        <v>0.8534278959810875</v>
+      </c>
+      <c r="Q11">
+        <v>0.9058269570335491</v>
+      </c>
+      <c r="R11">
+        <v>0.00349877278876314</v>
+      </c>
+      <c r="S11">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="T11">
+        <v>0.01057197637480826</v>
+      </c>
+      <c r="U11">
+        <v>0.006120340868972811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>0.1570090770721436</v>
+      </c>
+      <c r="B12">
+        <v>0.01820096969604492</v>
+      </c>
+      <c r="C12">
+        <v>0.8477851083883129</v>
+      </c>
+      <c r="D12">
+        <v>0.9090485195963313</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>0.8470588235294118</v>
+      </c>
+      <c r="I12">
+        <v>0.9186800235710076</v>
+      </c>
+      <c r="J12">
+        <v>0.8282352941176471</v>
+      </c>
+      <c r="K12">
+        <v>0.9121979964643488</v>
+      </c>
+      <c r="L12">
+        <v>0.8541176470588235</v>
+      </c>
+      <c r="M12">
+        <v>0.8998232174425457</v>
+      </c>
+      <c r="N12">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="O12">
+        <v>0.9057714958775029</v>
+      </c>
+      <c r="P12">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="Q12">
+        <v>0.9087698646262508</v>
+      </c>
+      <c r="R12">
+        <v>0.004516762520867656</v>
+      </c>
+      <c r="S12">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="T12">
+        <v>0.01047506470815418</v>
+      </c>
+      <c r="U12">
+        <v>0.006302504363047116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>0.1616092205047607</v>
+      </c>
+      <c r="B13">
+        <v>0.01860113143920899</v>
+      </c>
+      <c r="C13">
+        <v>0.8501413760603205</v>
+      </c>
+      <c r="D13">
+        <v>0.9110517776148812</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I13">
+        <v>0.9216263995285798</v>
+      </c>
+      <c r="J13">
+        <v>0.8329411764705882</v>
+      </c>
+      <c r="K13">
+        <v>0.9127872716558633</v>
+      </c>
+      <c r="L13">
+        <v>0.8564705882352941</v>
+      </c>
+      <c r="M13">
+        <v>0.9039481437831467</v>
+      </c>
+      <c r="N13">
+        <v>0.8655660377358491</v>
+      </c>
+      <c r="O13">
+        <v>0.9081272084805654</v>
+      </c>
+      <c r="P13">
+        <v>0.8463356973995272</v>
+      </c>
+      <c r="Q13">
+        <v>0.9087698646262508</v>
+      </c>
+      <c r="R13">
+        <v>0.003611262767561997</v>
+      </c>
+      <c r="S13">
+        <v>0.000489940339242533</v>
+      </c>
+      <c r="T13">
+        <v>0.0108539866225407</v>
+      </c>
+      <c r="U13">
+        <v>0.00598425289085272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>0.1652093410491943</v>
+      </c>
+      <c r="B14">
+        <v>0.01880111694335938</v>
+      </c>
+      <c r="C14">
+        <v>0.8529688972667295</v>
+      </c>
+      <c r="D14">
+        <v>0.9131730295697384</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>0.8541176470588235</v>
+      </c>
+      <c r="I14">
+        <v>0.9251620506776664</v>
+      </c>
+      <c r="J14">
+        <v>0.8329411764705882</v>
+      </c>
+      <c r="K14">
+        <v>0.9157336476134355</v>
+      </c>
+      <c r="L14">
+        <v>0.8611764705882353</v>
+      </c>
+      <c r="M14">
+        <v>0.9074837949322333</v>
+      </c>
+      <c r="N14">
+        <v>0.8655660377358491</v>
+      </c>
+      <c r="O14">
+        <v>0.9081272084805654</v>
+      </c>
+      <c r="P14">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="Q14">
+        <v>0.909358446144791</v>
+      </c>
+      <c r="R14">
+        <v>0.005913113212468403</v>
+      </c>
+      <c r="S14">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="T14">
+        <v>0.01124822968405846</v>
+      </c>
+      <c r="U14">
+        <v>0.006673412018187777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>0.1686097145080566</v>
+      </c>
+      <c r="B15">
+        <v>0.01840095520019531</v>
+      </c>
+      <c r="C15">
+        <v>0.8520263901979265</v>
+      </c>
+      <c r="D15">
+        <v>0.9167074318623575</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>0.8541176470588235</v>
+      </c>
+      <c r="I15">
+        <v>0.928697701826753</v>
+      </c>
+      <c r="J15">
+        <v>0.8376470588235294</v>
+      </c>
+      <c r="K15">
+        <v>0.9180907483794932</v>
+      </c>
+      <c r="L15">
+        <v>0.8635294117647059</v>
+      </c>
+      <c r="M15">
+        <v>0.9121979964643488</v>
+      </c>
+      <c r="N15">
+        <v>0.8632075471698113</v>
+      </c>
+      <c r="O15">
+        <v>0.911660777385159</v>
+      </c>
+      <c r="P15">
+        <v>0.8416075650118203</v>
+      </c>
+      <c r="Q15">
+        <v>0.912889935256033</v>
+      </c>
+      <c r="R15">
+        <v>0.004630617045295081</v>
+      </c>
+      <c r="S15">
+        <v>0.0004900376480808073</v>
+      </c>
+      <c r="T15">
+        <v>0.01074279171528807</v>
+      </c>
+      <c r="U15">
+        <v>0.006419612881880121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>0.1724097728729248</v>
+      </c>
+      <c r="B16">
+        <v>0.01800103187561035</v>
+      </c>
+      <c r="C16">
+        <v>0.8529688972667295</v>
+      </c>
+      <c r="D16">
+        <v>0.919181416361145</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>0.8541176470588235</v>
+      </c>
+      <c r="I16">
+        <v>0.9310548025928108</v>
+      </c>
+      <c r="J16">
+        <v>0.84</v>
+      </c>
+      <c r="K16">
+        <v>0.920447849145551</v>
+      </c>
+      <c r="L16">
+        <v>0.8635294117647059</v>
+      </c>
+      <c r="M16">
+        <v>0.9145550972304066</v>
+      </c>
+      <c r="N16">
+        <v>0.8632075471698113</v>
+      </c>
+      <c r="O16">
+        <v>0.9140164899882215</v>
+      </c>
+      <c r="P16">
+        <v>0.8439716312056738</v>
+      </c>
+      <c r="Q16">
+        <v>0.9158328428487346</v>
+      </c>
+      <c r="R16">
+        <v>0.006800378070559429</v>
+      </c>
+      <c r="S16">
+        <v>0.000632409699322999</v>
+      </c>
+      <c r="T16">
+        <v>0.009662800981435122</v>
+      </c>
+      <c r="U16">
+        <v>0.006354107180539264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>0.1752099990844727</v>
+      </c>
+      <c r="B17">
+        <v>0.01780099868774414</v>
+      </c>
+      <c r="C17">
+        <v>0.8548539114043355</v>
+      </c>
+      <c r="D17">
+        <v>0.9210665418722023</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>0.8541176470588235</v>
+      </c>
+      <c r="I17">
+        <v>0.9316440777843252</v>
+      </c>
+      <c r="J17">
+        <v>0.8423529411764706</v>
+      </c>
+      <c r="K17">
+        <v>0.9222156747200942</v>
+      </c>
+      <c r="L17">
+        <v>0.8635294117647059</v>
+      </c>
+      <c r="M17">
+        <v>0.9180907483794932</v>
+      </c>
+      <c r="N17">
+        <v>0.8655660377358491</v>
+      </c>
+      <c r="O17">
+        <v>0.9163722025912838</v>
+      </c>
+      <c r="P17">
+        <v>0.8486997635933806</v>
+      </c>
+      <c r="Q17">
+        <v>0.9170100058858152</v>
+      </c>
+      <c r="R17">
+        <v>0.008424262353508348</v>
+      </c>
+      <c r="S17">
+        <v>0.00039992333879854</v>
+      </c>
+      <c r="T17">
+        <v>0.008772671793788683</v>
+      </c>
+      <c r="U17">
+        <v>0.005666611415631607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>0.1718098640441895</v>
+      </c>
+      <c r="B18">
+        <v>0.01820096969604492</v>
+      </c>
+      <c r="C18">
+        <v>0.8572101790763431</v>
+      </c>
+      <c r="D18">
+        <v>0.923422185639048</v>
+      </c>
+      <c r="E18">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0.851764705882353</v>
+      </c>
+      <c r="I18">
+        <v>0.9328226281673542</v>
+      </c>
+      <c r="J18">
+        <v>0.8470588235294118</v>
+      </c>
+      <c r="K18">
+        <v>0.9233942251031232</v>
+      </c>
+      <c r="L18">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M18">
+        <v>0.9192692987625221</v>
+      </c>
+      <c r="N18">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="O18">
+        <v>0.9204946996466431</v>
+      </c>
+      <c r="P18">
+        <v>0.8486997635933806</v>
+      </c>
+      <c r="Q18">
+        <v>0.9211300765155974</v>
+      </c>
+      <c r="R18">
+        <v>0.006585335730427371</v>
+      </c>
+      <c r="S18">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="T18">
+        <v>0.009989930464470142</v>
+      </c>
+      <c r="U18">
+        <v>0.004887525128289577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19">
+        <v>0.1768101215362549</v>
+      </c>
+      <c r="B19">
+        <v>0.01820101737976074</v>
+      </c>
+      <c r="C19">
+        <v>0.8572101790763431</v>
+      </c>
+      <c r="D19">
+        <v>0.9258963087907255</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I19">
+        <v>0.934001178550383</v>
+      </c>
+      <c r="J19">
+        <v>0.8470588235294118</v>
+      </c>
+      <c r="K19">
+        <v>0.9269298762522098</v>
+      </c>
+      <c r="L19">
+        <v>0.8682352941176471</v>
+      </c>
+      <c r="M19">
+        <v>0.9216263995285798</v>
+      </c>
+      <c r="N19">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="O19">
+        <v>0.9240282685512368</v>
+      </c>
+      <c r="P19">
+        <v>0.8534278959810875</v>
+      </c>
+      <c r="Q19">
+        <v>0.9228958210712184</v>
+      </c>
+      <c r="R19">
+        <v>0.004445513552028128</v>
+      </c>
+      <c r="S19">
+        <v>0.0004001140736550456</v>
+      </c>
+      <c r="T19">
+        <v>0.009107903353562293</v>
+      </c>
+      <c r="U19">
+        <v>0.004415468299437091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>0.1788102149963379</v>
+      </c>
+      <c r="B20">
+        <v>0.01820101737976074</v>
+      </c>
+      <c r="C20">
+        <v>0.8586239396795476</v>
+      </c>
+      <c r="D20">
+        <v>0.9276633713658496</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I20">
+        <v>0.9357690041249264</v>
+      </c>
+      <c r="J20">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="K20">
+        <v>0.9281084266352386</v>
+      </c>
+      <c r="L20">
+        <v>0.8682352941176471</v>
+      </c>
+      <c r="M20">
+        <v>0.924572775486152</v>
+      </c>
+      <c r="N20">
+        <v>0.8726415094339622</v>
+      </c>
+      <c r="O20">
+        <v>0.9234393404004712</v>
+      </c>
+      <c r="P20">
+        <v>0.8534278959810875</v>
+      </c>
+      <c r="Q20">
+        <v>0.9264273101824603</v>
+      </c>
+      <c r="R20">
+        <v>0.004664987681469945</v>
+      </c>
+      <c r="S20">
+        <v>0.0003999948608169696</v>
+      </c>
+      <c r="T20">
+        <v>0.009855900758691858</v>
+      </c>
+      <c r="U20">
+        <v>0.004354800210227577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21">
+        <v>0.1776101589202881</v>
+      </c>
+      <c r="B21">
+        <v>0.01780104637145996</v>
+      </c>
+      <c r="C21">
+        <v>0.8590951932139491</v>
+      </c>
+      <c r="D21">
+        <v>0.9293125094128165</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I21">
+        <v>0.9381261048909841</v>
+      </c>
+      <c r="J21">
+        <v>0.851764705882353</v>
+      </c>
+      <c r="K21">
+        <v>0.9292869770182676</v>
+      </c>
+      <c r="L21">
+        <v>0.8658823529411764</v>
+      </c>
+      <c r="M21">
+        <v>0.9251620506776664</v>
+      </c>
+      <c r="N21">
+        <v>0.8726415094339622</v>
+      </c>
+      <c r="O21">
+        <v>0.9246171967020024</v>
+      </c>
+      <c r="P21">
+        <v>0.8557919621749409</v>
+      </c>
+      <c r="Q21">
+        <v>0.9293702177751618</v>
+      </c>
+      <c r="R21">
+        <v>0.007940189967467745</v>
+      </c>
+      <c r="S21">
+        <v>0.0004000664041494148</v>
+      </c>
+      <c r="T21">
+        <v>0.008809643617433813</v>
+      </c>
+      <c r="U21">
+        <v>0.004836439115207574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>0.1718099117279053</v>
+      </c>
+      <c r="B22">
+        <v>0.0178009033203125</v>
+      </c>
+      <c r="C22">
+        <v>0.8590951932139491</v>
+      </c>
+      <c r="D22">
+        <v>0.9308437923397757</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>0.84</v>
+      </c>
+      <c r="I22">
+        <v>0.939304655274013</v>
+      </c>
+      <c r="J22">
+        <v>0.8588235294117647</v>
+      </c>
+      <c r="K22">
+        <v>0.9316440777843252</v>
+      </c>
+      <c r="L22">
+        <v>0.8658823529411764</v>
+      </c>
+      <c r="M22">
+        <v>0.924572775486152</v>
+      </c>
+      <c r="N22">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="O22">
+        <v>0.9269729093050648</v>
+      </c>
+      <c r="P22">
+        <v>0.8534278959810875</v>
+      </c>
+      <c r="Q22">
+        <v>0.9317245438493231</v>
+      </c>
+      <c r="R22">
+        <v>0.005307030951514109</v>
+      </c>
+      <c r="S22">
+        <v>0.0003999948608169695</v>
+      </c>
+      <c r="T22">
+        <v>0.01246268375999443</v>
+      </c>
+      <c r="U22">
+        <v>0.005046023572143172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>0.1824104785919189</v>
+      </c>
+      <c r="B23">
+        <v>0.01740107536315918</v>
+      </c>
+      <c r="C23">
+        <v>0.8605089538171536</v>
+      </c>
+      <c r="D23">
+        <v>0.932728917850833</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>0.8423529411764706</v>
+      </c>
+      <c r="I23">
+        <v>0.9404832056570418</v>
+      </c>
+      <c r="J23">
+        <v>0.8588235294117647</v>
+      </c>
+      <c r="K23">
+        <v>0.9345904537418974</v>
+      </c>
+      <c r="L23">
+        <v>0.8682352941176471</v>
+      </c>
+      <c r="M23">
+        <v>0.9263406010606954</v>
+      </c>
+      <c r="N23">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="O23">
+        <v>0.9293286219081273</v>
+      </c>
+      <c r="P23">
+        <v>0.8557919621749409</v>
+      </c>
+      <c r="Q23">
+        <v>0.9329017068864037</v>
+      </c>
+      <c r="R23">
+        <v>0.003611231074052936</v>
+      </c>
+      <c r="S23">
+        <v>0.0004899014056540585</v>
+      </c>
+      <c r="T23">
+        <v>0.01181988280110635</v>
+      </c>
+      <c r="U23">
+        <v>0.004816570464867887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>0.1796103000640869</v>
+      </c>
+      <c r="B24">
+        <v>0.01740083694458008</v>
+      </c>
+      <c r="C24">
+        <v>0.8628652214891611</v>
+      </c>
+      <c r="D24">
+        <v>0.9340251844558652</v>
+      </c>
+      <c r="E24">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>0.8423529411764706</v>
+      </c>
+      <c r="I24">
+        <v>0.9416617560400707</v>
+      </c>
+      <c r="J24">
+        <v>0.8611764705882353</v>
+      </c>
+      <c r="K24">
+        <v>0.9351797289334119</v>
+      </c>
+      <c r="L24">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="M24">
+        <v>0.929876252209782</v>
+      </c>
+      <c r="N24">
+        <v>0.8797169811320755</v>
+      </c>
+      <c r="O24">
+        <v>0.9305064782096584</v>
+      </c>
+      <c r="P24">
+        <v>0.8581560283687943</v>
+      </c>
+      <c r="Q24">
+        <v>0.9329017068864037</v>
+      </c>
+      <c r="R24">
+        <v>0.005571675572334085</v>
+      </c>
+      <c r="S24">
+        <v>0.0004899987222241537</v>
+      </c>
+      <c r="T24">
+        <v>0.01289721127571723</v>
+      </c>
+      <c r="U24">
+        <v>0.004254581831157942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>0.1798102855682373</v>
+      </c>
+      <c r="B25">
+        <v>0.01760096549987793</v>
+      </c>
+      <c r="C25">
+        <v>0.8642789820923656</v>
+      </c>
+      <c r="D25">
+        <v>0.935085671576142</v>
+      </c>
+      <c r="E25">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>0.8447058823529412</v>
+      </c>
+      <c r="I25">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="J25">
+        <v>0.8635294117647059</v>
+      </c>
+      <c r="K25">
+        <v>0.9369475545079552</v>
+      </c>
+      <c r="L25">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="M25">
+        <v>0.9310548025928108</v>
+      </c>
+      <c r="N25">
+        <v>0.8820754716981132</v>
+      </c>
+      <c r="O25">
+        <v>0.9322732626619552</v>
+      </c>
+      <c r="P25">
+        <v>0.8581560283687943</v>
+      </c>
+      <c r="Q25">
+        <v>0.9329017068864037</v>
+      </c>
+      <c r="R25">
+        <v>0.006554806166881071</v>
+      </c>
+      <c r="S25">
+        <v>0.0004899403160383115</v>
+      </c>
+      <c r="T25">
+        <v>0.01275251834287563</v>
+      </c>
+      <c r="U25">
+        <v>0.004092340100016911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>0.1872107982635498</v>
+      </c>
+      <c r="B26">
+        <v>0.01740093231201172</v>
+      </c>
+      <c r="C26">
+        <v>0.8661639962299718</v>
+      </c>
+      <c r="D26">
+        <v>0.9364986832610139</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>0.8447058823529412</v>
+      </c>
+      <c r="I26">
+        <v>0.9416617560400707</v>
+      </c>
+      <c r="J26">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="K26">
+        <v>0.9375368296994696</v>
+      </c>
+      <c r="L26">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="M26">
+        <v>0.9316440777843252</v>
+      </c>
+      <c r="N26">
+        <v>0.8844339622641509</v>
+      </c>
+      <c r="O26">
+        <v>0.9346289752650176</v>
+      </c>
+      <c r="P26">
+        <v>0.8557919621749409</v>
+      </c>
+      <c r="Q26">
+        <v>0.937021777516186</v>
+      </c>
+      <c r="R26">
+        <v>0.003544220389566136</v>
+      </c>
+      <c r="S26">
+        <v>0.0004899208473093903</v>
+      </c>
+      <c r="T26">
+        <v>0.01409817789544109</v>
+      </c>
+      <c r="U26">
+        <v>0.003318785876609034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>0.1870106220245361</v>
+      </c>
+      <c r="B27">
+        <v>0.017401123046875</v>
+      </c>
+      <c r="C27">
+        <v>0.8680490103675778</v>
+      </c>
+      <c r="D27">
+        <v>0.9379124581087144</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I27">
+        <v>0.9428403064230996</v>
+      </c>
+      <c r="J27">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="K27">
+        <v>0.9387153800824986</v>
+      </c>
+      <c r="L27">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M27">
+        <v>0.934001178550383</v>
+      </c>
+      <c r="N27">
+        <v>0.8891509433962265</v>
+      </c>
+      <c r="O27">
+        <v>0.9352179034157833</v>
+      </c>
+      <c r="P27">
+        <v>0.8581560283687943</v>
+      </c>
+      <c r="Q27">
+        <v>0.9387875220718069</v>
+      </c>
+      <c r="R27">
+        <v>0.005477594703265542</v>
+      </c>
+      <c r="S27">
+        <v>0.0004898624411217046</v>
+      </c>
+      <c r="T27">
+        <v>0.01356968695497317</v>
+      </c>
+      <c r="U27">
+        <v>0.003106536412846169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>0.186410665512085</v>
+      </c>
+      <c r="B28">
+        <v>0.01720104217529297</v>
+      </c>
+      <c r="C28">
+        <v>0.8708765315739868</v>
+      </c>
+      <c r="D28">
+        <v>0.938972320882462</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I28">
+        <v>0.9428403064230996</v>
+      </c>
+      <c r="J28">
+        <v>0.8752941176470588</v>
+      </c>
+      <c r="K28">
+        <v>0.9387153800824986</v>
+      </c>
+      <c r="L28">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="M28">
+        <v>0.9345904537418974</v>
+      </c>
+      <c r="N28">
+        <v>0.8891509433962265</v>
+      </c>
+      <c r="O28">
+        <v>0.9375736160188457</v>
+      </c>
+      <c r="P28">
+        <v>0.8676122931442081</v>
+      </c>
+      <c r="Q28">
+        <v>0.9411418481459682</v>
+      </c>
+      <c r="R28">
+        <v>0.005678247812370738</v>
+      </c>
+      <c r="S28">
+        <v>0.0004001379119606201</v>
+      </c>
+      <c r="T28">
+        <v>0.01287989522783439</v>
+      </c>
+      <c r="U28">
+        <v>0.002859766221124642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>0.1906107902526855</v>
+      </c>
+      <c r="B29">
+        <v>0.01700105667114258</v>
+      </c>
+      <c r="C29">
+        <v>0.8718190386427899</v>
+      </c>
+      <c r="D29">
+        <v>0.9397971673342825</v>
+      </c>
+      <c r="E29">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I29">
+        <v>0.9428403064230996</v>
+      </c>
+      <c r="J29">
+        <v>0.8752941176470588</v>
+      </c>
+      <c r="K29">
+        <v>0.9404832056570418</v>
+      </c>
+      <c r="L29">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="M29">
+        <v>0.9357690041249264</v>
+      </c>
+      <c r="N29">
+        <v>0.8891509433962265</v>
+      </c>
+      <c r="O29">
+        <v>0.9387514723203769</v>
+      </c>
+      <c r="P29">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q29">
+        <v>0.9411418481459682</v>
+      </c>
+      <c r="R29">
+        <v>0.008285455963346951</v>
+      </c>
+      <c r="S29">
+        <v>0.0006324097029183531</v>
+      </c>
+      <c r="T29">
+        <v>0.01277914488979008</v>
+      </c>
+      <c r="U29">
+        <v>0.002402460716965584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30">
+        <v>0.1906109809875488</v>
+      </c>
+      <c r="B30">
+        <v>0.01700091361999512</v>
+      </c>
+      <c r="C30">
+        <v>0.8718190386427899</v>
+      </c>
+      <c r="D30">
+        <v>0.940622013867808</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I30">
+        <v>0.943429581614614</v>
+      </c>
+      <c r="J30">
+        <v>0.8776470588235294</v>
+      </c>
+      <c r="K30">
+        <v>0.9404832056570418</v>
+      </c>
+      <c r="L30">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M30">
+        <v>0.9387153800824986</v>
+      </c>
+      <c r="N30">
+        <v>0.8891509433962265</v>
+      </c>
+      <c r="O30">
+        <v>0.9387514723203769</v>
+      </c>
+      <c r="P30">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q30">
+        <v>0.9417304296645085</v>
+      </c>
+      <c r="R30">
+        <v>0.007116554174084589</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0.01295152004580352</v>
+      </c>
+      <c r="U30">
+        <v>0.001803578000675647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31">
+        <v>0.1912109375</v>
+      </c>
+      <c r="B31">
+        <v>0.01660089492797851</v>
+      </c>
+      <c r="C31">
+        <v>0.8708765315739868</v>
+      </c>
+      <c r="D31">
+        <v>0.9409753708399722</v>
+      </c>
+      <c r="E31">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I31">
+        <v>0.9440188568061285</v>
+      </c>
+      <c r="J31">
+        <v>0.8776470588235294</v>
+      </c>
+      <c r="K31">
+        <v>0.9398939304655274</v>
+      </c>
+      <c r="L31">
+        <v>0.8682352941176471</v>
+      </c>
+      <c r="M31">
+        <v>0.939304655274013</v>
+      </c>
+      <c r="N31">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="O31">
+        <v>0.9393404004711425</v>
+      </c>
+      <c r="P31">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q31">
+        <v>0.9423190111830488</v>
+      </c>
+      <c r="R31">
+        <v>0.007626680534257865</v>
+      </c>
+      <c r="S31">
+        <v>0.000490018183218949</v>
+      </c>
+      <c r="T31">
+        <v>0.01240558055446622</v>
+      </c>
+      <c r="U31">
+        <v>0.001881600812632817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32">
+        <v>0.1896108150482178</v>
+      </c>
+      <c r="B32">
+        <v>0.01680097579956055</v>
+      </c>
+      <c r="C32">
+        <v>0.8732327992459944</v>
+      </c>
+      <c r="D32">
+        <v>0.9426249250907233</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>0.851764705882353</v>
+      </c>
+      <c r="I32">
+        <v>0.9451974071891573</v>
+      </c>
+      <c r="J32">
+        <v>0.88</v>
+      </c>
+      <c r="K32">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L32">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M32">
+        <v>0.9416617560400707</v>
+      </c>
+      <c r="N32">
+        <v>0.8915094339622641</v>
+      </c>
+      <c r="O32">
+        <v>0.9405182567726738</v>
+      </c>
+      <c r="P32">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q32">
+        <v>0.9434961742201294</v>
+      </c>
+      <c r="R32">
+        <v>0.003611202024730858</v>
+      </c>
+      <c r="S32">
+        <v>0.0007483537202684933</v>
+      </c>
+      <c r="T32">
+        <v>0.01303002847446399</v>
+      </c>
+      <c r="U32">
+        <v>0.001605134376465998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>0.1890108585357666</v>
+      </c>
+      <c r="B33">
+        <v>0.0166008472442627</v>
+      </c>
+      <c r="C33">
+        <v>0.8727615457115928</v>
+      </c>
+      <c r="D33">
+        <v>0.9434493553387595</v>
+      </c>
+      <c r="E33">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>0.851764705882353</v>
+      </c>
+      <c r="I33">
+        <v>0.9446081319976429</v>
+      </c>
+      <c r="J33">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="K33">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L33">
+        <v>0.8682352941176471</v>
+      </c>
+      <c r="M33">
+        <v>0.943429581614614</v>
+      </c>
+      <c r="N33">
+        <v>0.8891509433962265</v>
+      </c>
+      <c r="O33">
+        <v>0.941696113074205</v>
+      </c>
+      <c r="P33">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q33">
+        <v>0.9452619187757504</v>
+      </c>
+      <c r="R33">
+        <v>0.006229293956868089</v>
+      </c>
+      <c r="S33">
+        <v>0.0004898819214545809</v>
+      </c>
+      <c r="T33">
+        <v>0.01282706007662106</v>
+      </c>
+      <c r="U33">
+        <v>0.001351915652880113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>0.1944110870361328</v>
+      </c>
+      <c r="B34">
+        <v>0.01660103797912598</v>
+      </c>
+      <c r="C34">
+        <v>0.8727615457115928</v>
+      </c>
+      <c r="D34">
+        <v>0.9436847879461757</v>
+      </c>
+      <c r="E34">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I34">
+        <v>0.943429581614614</v>
+      </c>
+      <c r="J34">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K34">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L34">
+        <v>0.8682352941176471</v>
+      </c>
+      <c r="M34">
+        <v>0.9446081319976429</v>
+      </c>
+      <c r="N34">
+        <v>0.8915094339622641</v>
+      </c>
+      <c r="O34">
+        <v>0.941696113074205</v>
+      </c>
+      <c r="P34">
+        <v>0.8699763593380615</v>
+      </c>
+      <c r="Q34">
+        <v>0.9464390818128311</v>
+      </c>
+      <c r="R34">
+        <v>0.006406607351807606</v>
+      </c>
+      <c r="S34">
+        <v>0.0004899403160383116</v>
+      </c>
+      <c r="T34">
+        <v>0.01461678197721122</v>
+      </c>
+      <c r="U34">
+        <v>0.001703779051167485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>0.194011116027832</v>
+      </c>
+      <c r="B35">
+        <v>0.01680083274841309</v>
+      </c>
+      <c r="C35">
+        <v>0.8732327992459944</v>
+      </c>
+      <c r="D35">
+        <v>0.9448633382474998</v>
+      </c>
+      <c r="E35">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I35">
+        <v>0.9457866823806718</v>
+      </c>
+      <c r="J35">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K35">
+        <v>0.9428403064230996</v>
+      </c>
+      <c r="L35">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M35">
+        <v>0.9469652327637006</v>
+      </c>
+      <c r="N35">
+        <v>0.8915094339622641</v>
+      </c>
+      <c r="O35">
+        <v>0.9428739693757362</v>
+      </c>
+      <c r="P35">
+        <v>0.8699763593380615</v>
+      </c>
+      <c r="Q35">
+        <v>0.9458505002942907</v>
+      </c>
+      <c r="R35">
+        <v>0.008764008529638352</v>
+      </c>
+      <c r="S35">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="T35">
+        <v>0.01450072560938992</v>
+      </c>
+      <c r="U35">
+        <v>0.001690873154473784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>0.1948111534118652</v>
+      </c>
+      <c r="B36">
+        <v>0.01640100479125977</v>
+      </c>
+      <c r="C36">
+        <v>0.8751178133836004</v>
+      </c>
+      <c r="D36">
+        <v>0.9450988402630657</v>
+      </c>
+      <c r="E36">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>0.8494117647058823</v>
+      </c>
+      <c r="I36">
+        <v>0.9463759575721862</v>
+      </c>
+      <c r="J36">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K36">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L36">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M36">
+        <v>0.9475545079552151</v>
+      </c>
+      <c r="N36">
+        <v>0.8985849056603774</v>
+      </c>
+      <c r="O36">
+        <v>0.9422850412249706</v>
+      </c>
+      <c r="P36">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q36">
+        <v>0.9470276633313714</v>
+      </c>
+      <c r="R36">
+        <v>0.00679441574630649</v>
+      </c>
+      <c r="S36">
+        <v>0.0004899208705145337</v>
+      </c>
+      <c r="T36">
+        <v>0.01632308846985834</v>
+      </c>
+      <c r="U36">
+        <v>0.002341331765082306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37">
+        <v>0.1980113983154297</v>
+      </c>
+      <c r="B37">
+        <v>0.01640095710754395</v>
+      </c>
+      <c r="C37">
+        <v>0.8755890669180019</v>
+      </c>
+      <c r="D37">
+        <v>0.9448631301864598</v>
+      </c>
+      <c r="E37">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>0.851764705882353</v>
+      </c>
+      <c r="I37">
+        <v>0.9457866823806718</v>
+      </c>
+      <c r="J37">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K37">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L37">
+        <v>0.8705882352941177</v>
+      </c>
+      <c r="M37">
+        <v>0.9469652327637006</v>
+      </c>
+      <c r="N37">
+        <v>0.8985849056603774</v>
+      </c>
+      <c r="O37">
+        <v>0.9422850412249706</v>
+      </c>
+      <c r="P37">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="Q37">
+        <v>0.9470276633313714</v>
+      </c>
+      <c r="R37">
+        <v>0.006928609577267084</v>
+      </c>
+      <c r="S37">
+        <v>0.0004900571400079586</v>
+      </c>
+      <c r="T37">
+        <v>0.01559172333505961</v>
+      </c>
+      <c r="U37">
+        <v>0.00216455959860231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>0.1976113319396973</v>
+      </c>
+      <c r="B38">
+        <v>0.01620082855224609</v>
+      </c>
+      <c r="C38">
+        <v>0.8751178133836004</v>
+      </c>
+      <c r="D38">
+        <v>0.945570121518273</v>
+      </c>
+      <c r="E38">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>0.851764705882353</v>
+      </c>
+      <c r="I38">
+        <v>0.9469652327637006</v>
+      </c>
+      <c r="J38">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K38">
+        <v>0.9428403064230996</v>
+      </c>
+      <c r="L38">
+        <v>0.8729411764705882</v>
+      </c>
+      <c r="M38">
+        <v>0.9469652327637006</v>
+      </c>
+      <c r="N38">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="O38">
+        <v>0.944640753828033</v>
+      </c>
+      <c r="P38">
+        <v>0.8699763593380615</v>
+      </c>
+      <c r="Q38">
+        <v>0.9464390818128311</v>
+      </c>
+      <c r="R38">
+        <v>0.005200450238098034</v>
+      </c>
+      <c r="S38">
+        <v>0.0004000425445315194</v>
+      </c>
+      <c r="T38">
+        <v>0.01492946475332464</v>
+      </c>
+      <c r="U38">
+        <v>0.001610178718357328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>0.1970113277435303</v>
+      </c>
+      <c r="B39">
+        <v>0.01620092391967774</v>
+      </c>
+      <c r="C39">
+        <v>0.8770028275212064</v>
+      </c>
+      <c r="D39">
+        <v>0.9462768354626011</v>
+      </c>
+      <c r="E39">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>0.8564705882352941</v>
+      </c>
+      <c r="I39">
+        <v>0.948733058338244</v>
+      </c>
+      <c r="J39">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K39">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L39">
+        <v>0.8752941176470588</v>
+      </c>
+      <c r="M39">
+        <v>0.9469652327637006</v>
+      </c>
+      <c r="N39">
+        <v>0.8985849056603774</v>
+      </c>
+      <c r="O39">
+        <v>0.9458186101295641</v>
+      </c>
+      <c r="P39">
+        <v>0.8699763593380615</v>
+      </c>
+      <c r="Q39">
+        <v>0.9476162448499117</v>
+      </c>
+      <c r="R39">
+        <v>0.007239181984206797</v>
+      </c>
+      <c r="S39">
+        <v>0.0003999948608169696</v>
+      </c>
+      <c r="T39">
+        <v>0.0141355515851502</v>
+      </c>
+      <c r="U39">
+        <v>0.002223421207423854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>0.2024115562438965</v>
+      </c>
+      <c r="B40">
+        <v>0.01600093841552734</v>
+      </c>
+      <c r="C40">
+        <v>0.8779453345900095</v>
+      </c>
+      <c r="D40">
+        <v>0.9463946210927542</v>
+      </c>
+      <c r="E40">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0.8564705882352941</v>
+      </c>
+      <c r="I40">
+        <v>0.9481437831467295</v>
+      </c>
+      <c r="J40">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K40">
+        <v>0.9422510312315852</v>
+      </c>
+      <c r="L40">
+        <v>0.8752941176470588</v>
+      </c>
+      <c r="M40">
+        <v>0.9475545079552151</v>
+      </c>
+      <c r="N40">
+        <v>0.9033018867924528</v>
+      </c>
+      <c r="O40">
+        <v>0.9464075382803298</v>
+      </c>
+      <c r="P40">
+        <v>0.8699763593380615</v>
+      </c>
+      <c r="Q40">
+        <v>0.9476162448499117</v>
+      </c>
+      <c r="R40">
+        <v>0.002870730642126736</v>
+      </c>
+      <c r="S40">
+        <v>1.784161275279017e-07</v>
+      </c>
+      <c r="T40">
+        <v>0.01562222165741304</v>
+      </c>
+      <c r="U40">
+        <v>0.002147872147970917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>0.2026115417480469</v>
+      </c>
+      <c r="B41">
+        <v>0.01620087623596191</v>
+      </c>
+      <c r="C41">
+        <v>0.8774740810556079</v>
+      </c>
+      <c r="D41">
+        <v>0.9472193982998347</v>
+      </c>
+      <c r="E41">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0.8564705882352941</v>
+      </c>
+      <c r="I41">
+        <v>0.9481437831467295</v>
+      </c>
+      <c r="J41">
+        <v>0.8847058823529412</v>
+      </c>
+      <c r="K41">
+        <v>0.9440188568061285</v>
+      </c>
+      <c r="L41">
+        <v>0.8776470588235294</v>
+      </c>
+      <c r="M41">
+        <v>0.9493223335297584</v>
+      </c>
+      <c r="N41">
+        <v>0.9009433962264151</v>
+      </c>
+      <c r="O41">
+        <v>0.9458186101295641</v>
+      </c>
+      <c r="P41">
+        <v>0.8676122931442081</v>
+      </c>
+      <c r="Q41">
+        <v>0.9487934078869924</v>
+      </c>
+      <c r="R41">
+        <v>0.007552964762287678</v>
+      </c>
+      <c r="S41">
+        <v>0.000400018706226792</v>
+      </c>
+      <c r="T41">
+        <v>0.01510891717281422</v>
+      </c>
+      <c r="U41">
+        <v>0.001997999172061501</v>
       </c>
     </row>
   </sheetData>
